--- a/database/industries/lastic/petayer/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/petayer/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\lastic\petayer\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48C49C74-E133-43D9-A1A9-AA4BA20A8531}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DCCC6-77ED-4DA1-AC7A-DA4719CD5057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -648,16 +663,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:N105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -666,8 +681,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -678,8 +698,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -690,8 +715,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -700,8 +730,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -712,8 +747,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -724,8 +764,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -734,8 +779,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -756,8 +806,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -766,10 +831,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -778,128 +848,208 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H11" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I11" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>2830</v>
+      </c>
+      <c r="F12" s="13">
+        <v>2158</v>
+      </c>
+      <c r="G12" s="13">
+        <v>2676</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1916</v>
+      </c>
+      <c r="I12" s="13">
+        <v>2063</v>
+      </c>
+      <c r="J12" s="13">
         <v>2064</v>
       </c>
-      <c r="F12" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="13">
         <v>1769</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>2003</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>2171</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
+        <v>4388</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4514</v>
+      </c>
+      <c r="G13" s="11">
+        <v>4520</v>
+      </c>
+      <c r="H13" s="11">
+        <v>4145</v>
+      </c>
+      <c r="I13" s="11">
+        <v>4123</v>
+      </c>
+      <c r="J13" s="11">
         <v>4686</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G13" s="11">
+      <c r="K13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="11">
         <v>4705</v>
       </c>
-      <c r="H13" s="11">
+      <c r="M13" s="11">
         <v>4764</v>
       </c>
-      <c r="I13" s="11">
+      <c r="N13" s="11">
         <v>5031</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
+        <v>60</v>
+      </c>
+      <c r="F14" s="13">
+        <v>42</v>
+      </c>
+      <c r="G14" s="13">
+        <v>45</v>
+      </c>
+      <c r="H14" s="13">
+        <v>45</v>
+      </c>
+      <c r="I14" s="13">
+        <v>32</v>
+      </c>
+      <c r="J14" s="13">
         <v>41</v>
       </c>
-      <c r="F14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="13">
+      <c r="K14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="13">
         <v>33</v>
       </c>
-      <c r="H14" s="13">
+      <c r="M14" s="13">
         <v>25</v>
       </c>
-      <c r="I14" s="13">
+      <c r="N14" s="13">
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
+        <v>7278</v>
+      </c>
+      <c r="F15" s="15">
+        <v>6714</v>
+      </c>
+      <c r="G15" s="15">
+        <v>7241</v>
+      </c>
+      <c r="H15" s="15">
+        <v>6106</v>
+      </c>
+      <c r="I15" s="15">
+        <v>6218</v>
+      </c>
+      <c r="J15" s="15">
         <v>6791</v>
       </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
+      <c r="K15" s="15">
+        <v>0</v>
+      </c>
+      <c r="L15" s="15">
         <v>6507</v>
       </c>
-      <c r="H15" s="15">
+      <c r="M15" s="15">
         <v>6792</v>
       </c>
-      <c r="I15" s="15">
+      <c r="N15" s="15">
         <v>7261</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -908,106 +1058,171 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D17" s="11"/>
       <c r="E17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G17" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="D18" s="13"/>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C18" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H18" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I18" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C19" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G19" s="11">
+        <v>18</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="11">
         <v>24</v>
       </c>
-      <c r="H19" s="11">
+      <c r="M19" s="11">
         <v>28</v>
       </c>
-      <c r="I19" s="11">
+      <c r="N19" s="11">
         <v>62</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13"/>
       <c r="E20" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13">
+        <v>18</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13">
         <v>50</v>
       </c>
-      <c r="H20" s="13">
+      <c r="M20" s="13">
         <v>77</v>
       </c>
-      <c r="I20" s="13">
+      <c r="N20" s="13">
         <v>52</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
@@ -1018,18 +1233,33 @@
         <v>0</v>
       </c>
       <c r="G21" s="15">
+        <v>0</v>
+      </c>
+      <c r="H21" s="15">
+        <v>0</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15">
+        <v>0</v>
+      </c>
+      <c r="L21" s="15">
         <v>74</v>
       </c>
-      <c r="H21" s="15">
+      <c r="M21" s="15">
         <v>105</v>
       </c>
-      <c r="I21" s="15">
+      <c r="N21" s="15">
         <v>114</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="16" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17"/>
@@ -1038,10 +1268,15 @@
       <c r="G22" s="17"/>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="17"/>
+      <c r="K22" s="17"/>
+      <c r="L22" s="17"/>
+      <c r="M22" s="17"/>
+      <c r="N22" s="17"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1060,42 +1295,72 @@
       <c r="I23" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="15">
+        <v>0</v>
+      </c>
+      <c r="K23" s="15">
+        <v>0</v>
+      </c>
+      <c r="L23" s="15">
+        <v>0</v>
+      </c>
+      <c r="M23" s="15">
+        <v>0</v>
+      </c>
+      <c r="N23" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D24" s="19"/>
-      <c r="E24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G24" s="19" t="s">
-        <v>13</v>
+      <c r="E24" s="19">
+        <v>2</v>
+      </c>
+      <c r="F24" s="19">
+        <v>0</v>
+      </c>
+      <c r="G24" s="19">
+        <v>-6</v>
       </c>
       <c r="H24" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M24" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C25" s="15"/>
       <c r="D25" s="15"/>
       <c r="E25" s="15">
         <v>0</v>
       </c>
-      <c r="F25" s="15" t="s">
-        <v>13</v>
+      <c r="F25" s="15">
+        <v>0</v>
       </c>
       <c r="G25" s="15">
         <v>0</v>
@@ -1106,30 +1371,60 @@
       <c r="I25" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="15">
+        <v>0</v>
+      </c>
+      <c r="K25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L25" s="15">
+        <v>0</v>
+      </c>
+      <c r="M25" s="15">
+        <v>0</v>
+      </c>
+      <c r="N25" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
+        <v>7280</v>
+      </c>
+      <c r="F26" s="19">
+        <v>6714</v>
+      </c>
+      <c r="G26" s="19">
+        <v>7235</v>
+      </c>
+      <c r="H26" s="19">
+        <v>6106</v>
+      </c>
+      <c r="I26" s="19">
+        <v>6218</v>
+      </c>
+      <c r="J26" s="19">
         <v>6791</v>
       </c>
-      <c r="F26" s="19">
-        <v>0</v>
-      </c>
-      <c r="G26" s="19">
+      <c r="K26" s="19">
+        <v>0</v>
+      </c>
+      <c r="L26" s="19">
         <v>6581</v>
       </c>
-      <c r="H26" s="19">
+      <c r="M26" s="19">
         <v>6897</v>
       </c>
-      <c r="I26" s="19">
+      <c r="N26" s="19">
         <v>7375</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1138,8 +1433,13 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1148,8 +1448,13 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1158,10 +1463,15 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-    </row>
-    <row r="30" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J29" s="1"/>
+      <c r="K29" s="1"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
@@ -1180,8 +1490,23 @@
       <c r="I30" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L30" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M30" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N30" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1190,10 +1515,15 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1"/>
+      <c r="K31" s="1"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
@@ -1202,128 +1532,208 @@
       <c r="G32" s="9"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="9"/>
+      <c r="K32" s="9"/>
+      <c r="L32" s="9"/>
+      <c r="M32" s="9"/>
+      <c r="N32" s="9"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C33" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H33" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N33" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
+        <v>1130528</v>
+      </c>
+      <c r="F34" s="13">
+        <v>996588</v>
+      </c>
+      <c r="G34" s="13">
+        <v>1616599</v>
+      </c>
+      <c r="H34" s="13">
+        <v>1083544</v>
+      </c>
+      <c r="I34" s="13">
+        <v>1149756</v>
+      </c>
+      <c r="J34" s="13">
         <v>1261918</v>
       </c>
-      <c r="F34" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G34" s="13">
+      <c r="K34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L34" s="13">
         <v>1237086</v>
       </c>
-      <c r="H34" s="13">
+      <c r="M34" s="13">
         <v>1520706</v>
       </c>
-      <c r="I34" s="13">
+      <c r="N34" s="13">
         <v>1788230</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
+        <v>1466177</v>
+      </c>
+      <c r="F35" s="11">
+        <v>2047327</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2598576</v>
+      </c>
+      <c r="H35" s="11">
+        <v>2288232</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2248458</v>
+      </c>
+      <c r="J35" s="11">
         <v>2559915</v>
       </c>
-      <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
         <v>2731623</v>
       </c>
-      <c r="H35" s="11">
+      <c r="M35" s="11">
         <v>3428940</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>3777454</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
+        <v>16812</v>
+      </c>
+      <c r="F36" s="13">
+        <v>15368</v>
+      </c>
+      <c r="G36" s="13">
+        <v>18278</v>
+      </c>
+      <c r="H36" s="13">
+        <v>15272</v>
+      </c>
+      <c r="I36" s="13">
+        <v>10421</v>
+      </c>
+      <c r="J36" s="13">
         <v>13656</v>
       </c>
-      <c r="F36" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G36" s="13">
+      <c r="K36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L36" s="13">
         <v>16598</v>
       </c>
-      <c r="H36" s="13">
+      <c r="M36" s="13">
         <v>16891</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>43391</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>2613517</v>
+      </c>
+      <c r="F37" s="15">
+        <v>3059283</v>
+      </c>
+      <c r="G37" s="15">
+        <v>4233453</v>
+      </c>
+      <c r="H37" s="15">
+        <v>3387048</v>
+      </c>
+      <c r="I37" s="15">
+        <v>3408635</v>
+      </c>
+      <c r="J37" s="15">
         <v>3835489</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>3985307</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>4966537</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>5609075</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C38" s="9"/>
       <c r="D38" s="9"/>
@@ -1332,106 +1742,171 @@
       <c r="G38" s="9"/>
       <c r="H38" s="9"/>
       <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="9"/>
+      <c r="K38" s="9"/>
+      <c r="L38" s="9"/>
+      <c r="M38" s="9"/>
+      <c r="N38" s="9"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G39" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H39" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I39" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N39" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D40" s="13"/>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C40" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="13"/>
-      <c r="E40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H40" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I40" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B41" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C41" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G41" s="11">
+        <v>18</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K41" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L41" s="11">
         <v>16574</v>
       </c>
-      <c r="H41" s="11">
+      <c r="M41" s="11">
         <v>22425</v>
       </c>
-      <c r="I41" s="11">
+      <c r="N41" s="11">
         <v>59272</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D42" s="13"/>
       <c r="E42" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G42" s="13">
+        <v>18</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L42" s="13">
         <v>34615</v>
       </c>
-      <c r="H42" s="13">
+      <c r="M42" s="13">
         <v>61187</v>
       </c>
-      <c r="I42" s="13">
+      <c r="N42" s="13">
         <v>41435</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="14" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C43" s="15"/>
       <c r="D43" s="15"/>
@@ -1442,18 +1917,33 @@
         <v>0</v>
       </c>
       <c r="G43" s="15">
+        <v>0</v>
+      </c>
+      <c r="H43" s="15">
+        <v>0</v>
+      </c>
+      <c r="I43" s="15">
+        <v>0</v>
+      </c>
+      <c r="J43" s="15">
+        <v>0</v>
+      </c>
+      <c r="K43" s="15">
+        <v>0</v>
+      </c>
+      <c r="L43" s="15">
         <v>51189</v>
       </c>
-      <c r="H43" s="15">
+      <c r="M43" s="15">
         <v>83612</v>
       </c>
-      <c r="I43" s="15">
+      <c r="N43" s="15">
         <v>100707</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="16" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C44" s="17"/>
       <c r="D44" s="17"/>
@@ -1462,10 +1952,15 @@
       <c r="G44" s="17"/>
       <c r="H44" s="17"/>
       <c r="I44" s="17"/>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="17"/>
+      <c r="K44" s="17"/>
+      <c r="L44" s="17"/>
+      <c r="M44" s="17"/>
+      <c r="N44" s="17"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C45" s="15"/>
       <c r="D45" s="15"/>
@@ -1484,78 +1979,138 @@
       <c r="I45" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="15">
+        <v>0</v>
+      </c>
+      <c r="K45" s="15">
+        <v>0</v>
+      </c>
+      <c r="L45" s="15">
+        <v>0</v>
+      </c>
+      <c r="M45" s="15">
+        <v>0</v>
+      </c>
+      <c r="N45" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C46" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D46" s="19"/>
-      <c r="E46" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F46" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G46" s="19" t="s">
-        <v>13</v>
+      <c r="E46" s="19">
+        <v>-744</v>
+      </c>
+      <c r="F46" s="19">
+        <v>0</v>
+      </c>
+      <c r="G46" s="19">
+        <v>-4151</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I46" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M46" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N46" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>0</v>
-      </c>
-      <c r="F47" s="15" t="s">
-        <v>13</v>
+        <v>-32938</v>
+      </c>
+      <c r="F47" s="15">
+        <v>-79043</v>
       </c>
       <c r="G47" s="15">
-        <v>0</v>
+        <v>-120553</v>
       </c>
       <c r="H47" s="15">
-        <v>0</v>
+        <v>-28419</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="15">
+        <v>0</v>
+      </c>
+      <c r="K47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L47" s="15">
+        <v>0</v>
+      </c>
+      <c r="M47" s="15">
+        <v>0</v>
+      </c>
+      <c r="N47" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
+        <v>2579835</v>
+      </c>
+      <c r="F48" s="19">
+        <v>2980240</v>
+      </c>
+      <c r="G48" s="19">
+        <v>4108749</v>
+      </c>
+      <c r="H48" s="19">
+        <v>3358629</v>
+      </c>
+      <c r="I48" s="19">
+        <v>3408635</v>
+      </c>
+      <c r="J48" s="19">
         <v>3835489</v>
       </c>
-      <c r="F48" s="19">
-        <v>0</v>
-      </c>
-      <c r="G48" s="19">
+      <c r="K48" s="19">
+        <v>0</v>
+      </c>
+      <c r="L48" s="19">
         <v>4036496</v>
       </c>
-      <c r="H48" s="19">
+      <c r="M48" s="19">
         <v>5050149</v>
       </c>
-      <c r="I48" s="19">
+      <c r="N48" s="19">
         <v>5709782</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1564,8 +2119,13 @@
       <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1"/>
+      <c r="K49" s="1"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1574,8 +2134,13 @@
       <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1"/>
+      <c r="K50" s="1"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1584,10 +2149,15 @@
       <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
-    </row>
-    <row r="52" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B52" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
@@ -1606,8 +2176,23 @@
       <c r="I52" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L52" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M52" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N52" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1616,10 +2201,15 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C54" s="9"/>
       <c r="D54" s="9"/>
@@ -1628,106 +2218,171 @@
       <c r="G54" s="9"/>
       <c r="H54" s="9"/>
       <c r="I54" s="9"/>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="9"/>
+      <c r="K54" s="9"/>
+      <c r="L54" s="9"/>
+      <c r="M54" s="9"/>
+      <c r="N54" s="9"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C55" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D55" s="11"/>
       <c r="E55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H55" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N55" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C56" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
+        <v>399479859</v>
+      </c>
+      <c r="F56" s="13">
+        <v>446714219</v>
+      </c>
+      <c r="G56" s="13">
+        <v>581588015</v>
+      </c>
+      <c r="H56" s="13">
+        <v>565524008</v>
+      </c>
+      <c r="I56" s="13">
+        <v>545851672</v>
+      </c>
+      <c r="J56" s="13">
         <v>608153253</v>
       </c>
-      <c r="F56" s="13">
+      <c r="K56" s="13">
         <v>670483278</v>
       </c>
-      <c r="G56" s="13">
+      <c r="L56" s="13">
         <v>699313737</v>
       </c>
-      <c r="H56" s="13">
+      <c r="M56" s="13">
         <v>759214179</v>
       </c>
-      <c r="I56" s="13">
+      <c r="N56" s="13">
         <v>823689544</v>
       </c>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
+        <v>334133318</v>
+      </c>
+      <c r="F57" s="11">
+        <v>451400975</v>
+      </c>
+      <c r="G57" s="11">
+        <v>571360619</v>
+      </c>
+      <c r="H57" s="11">
+        <v>552046321</v>
+      </c>
+      <c r="I57" s="11">
+        <v>544193791</v>
+      </c>
+      <c r="J57" s="11">
         <v>546290013</v>
       </c>
-      <c r="F57" s="11">
+      <c r="K57" s="11">
         <v>549673531</v>
       </c>
-      <c r="G57" s="11">
+      <c r="L57" s="11">
         <v>580578746</v>
       </c>
-      <c r="H57" s="11">
+      <c r="M57" s="11">
         <v>719760705</v>
       </c>
-      <c r="I57" s="11">
+      <c r="N57" s="11">
         <v>750835619</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
+        <v>280200000</v>
+      </c>
+      <c r="F58" s="13">
+        <v>365690476</v>
+      </c>
+      <c r="G58" s="13">
+        <v>406133333</v>
+      </c>
+      <c r="H58" s="13">
+        <v>339377778</v>
+      </c>
+      <c r="I58" s="13">
+        <v>325406250</v>
+      </c>
+      <c r="J58" s="13">
         <v>333073171</v>
       </c>
-      <c r="F58" s="13">
+      <c r="K58" s="13">
         <v>338758621</v>
       </c>
-      <c r="G58" s="13">
+      <c r="L58" s="13">
         <v>502969697</v>
       </c>
-      <c r="H58" s="13">
+      <c r="M58" s="13">
         <v>675640000</v>
       </c>
-      <c r="I58" s="13">
+      <c r="N58" s="13">
         <v>735440678</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C59" s="9"/>
       <c r="D59" s="9"/>
@@ -1736,104 +2391,169 @@
       <c r="G59" s="9"/>
       <c r="H59" s="9"/>
       <c r="I59" s="9"/>
-    </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="9"/>
+      <c r="K59" s="9"/>
+      <c r="L59" s="9"/>
+      <c r="M59" s="9"/>
+      <c r="N59" s="9"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H60" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I60" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N60" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="12" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C61" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D61" s="13"/>
       <c r="E61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H61" s="13" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I61" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M61" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F62" s="11">
+        <v>18</v>
+      </c>
+      <c r="F62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J62" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K62" s="11">
         <v>658750000</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>690583333</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>800892857</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>956000000</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C63" s="13" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D63" s="13"/>
       <c r="E63" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="13">
+        <v>18</v>
+      </c>
+      <c r="F63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K63" s="13">
         <v>644254545</v>
       </c>
-      <c r="G63" s="13">
+      <c r="L63" s="13">
         <v>692300000</v>
       </c>
-      <c r="H63" s="13">
+      <c r="M63" s="13">
         <v>794636364</v>
       </c>
-      <c r="I63" s="13">
+      <c r="N63" s="13">
         <v>796826923</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1842,8 +2562,13 @@
       <c r="G64" s="1"/>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1852,8 +2577,13 @@
       <c r="G65" s="1"/>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1"/>
+      <c r="K65" s="1"/>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1862,10 +2592,15 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B67" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
@@ -1884,8 +2619,23 @@
       <c r="I67" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K67" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L67" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M67" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N67" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1894,10 +2644,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="8" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="9"/>
@@ -1906,128 +2661,208 @@
       <c r="G69" s="9"/>
       <c r="H69" s="9"/>
       <c r="I69" s="9"/>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="9"/>
+      <c r="K69" s="9"/>
+      <c r="L69" s="9"/>
+      <c r="M69" s="9"/>
+      <c r="N69" s="9"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C70" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H70" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N70" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C71" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
+        <v>-588537</v>
+      </c>
+      <c r="F71" s="13">
+        <v>-672841</v>
+      </c>
+      <c r="G71" s="13">
+        <v>-825922</v>
+      </c>
+      <c r="H71" s="13">
+        <v>-889611</v>
+      </c>
+      <c r="I71" s="13">
+        <v>-816013</v>
+      </c>
+      <c r="J71" s="13">
         <v>-1028232</v>
       </c>
-      <c r="F71" s="13">
+      <c r="K71" s="13">
         <v>-994120</v>
       </c>
-      <c r="G71" s="13">
+      <c r="L71" s="13">
         <v>-994076</v>
       </c>
-      <c r="H71" s="13">
+      <c r="M71" s="13">
         <v>-1290679</v>
       </c>
-      <c r="I71" s="13">
+      <c r="N71" s="13">
         <v>-1391488</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>-909978</v>
+      </c>
+      <c r="F72" s="11">
+        <v>-1269475</v>
+      </c>
+      <c r="G72" s="11">
+        <v>-1480421</v>
+      </c>
+      <c r="H72" s="11">
+        <v>-1619292</v>
+      </c>
+      <c r="I72" s="11">
+        <v>-2131962</v>
+      </c>
+      <c r="J72" s="11">
         <v>-2311624</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>-2637021</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>-2793467</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>-3198884</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>-3370939</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C73" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
+        <v>-6708</v>
+      </c>
+      <c r="F73" s="13">
+        <v>-10459</v>
+      </c>
+      <c r="G73" s="13">
+        <v>-10045</v>
+      </c>
+      <c r="H73" s="13">
+        <v>-13227</v>
+      </c>
+      <c r="I73" s="13">
+        <v>-8634</v>
+      </c>
+      <c r="J73" s="13">
         <v>-13574</v>
       </c>
-      <c r="F73" s="13">
+      <c r="K73" s="13">
         <v>-11843</v>
       </c>
-      <c r="G73" s="13">
+      <c r="L73" s="13">
         <v>-13541</v>
       </c>
-      <c r="H73" s="13">
+      <c r="M73" s="13">
         <v>-13276</v>
       </c>
-      <c r="I73" s="13">
+      <c r="N73" s="13">
         <v>-32680</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
+        <v>-1505223</v>
+      </c>
+      <c r="F74" s="15">
+        <v>-1952775</v>
+      </c>
+      <c r="G74" s="15">
+        <v>-2316388</v>
+      </c>
+      <c r="H74" s="15">
+        <v>-2522130</v>
+      </c>
+      <c r="I74" s="15">
+        <v>-2956609</v>
+      </c>
+      <c r="J74" s="15">
         <v>-3353430</v>
       </c>
-      <c r="F74" s="15">
+      <c r="K74" s="15">
         <v>-3642984</v>
       </c>
-      <c r="G74" s="15">
+      <c r="L74" s="15">
         <v>-3801084</v>
       </c>
-      <c r="H74" s="15">
+      <c r="M74" s="15">
         <v>-4502839</v>
       </c>
-      <c r="I74" s="15">
+      <c r="N74" s="15">
         <v>-4795107</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -2036,106 +2871,171 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G76" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H76" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M76" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N76" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13">
+        <v>0</v>
+      </c>
+      <c r="F77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M77" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C77" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H77" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I77" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B78" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C78" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="11">
+        <v>18</v>
+      </c>
+      <c r="F78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K78" s="11">
         <v>-29175</v>
       </c>
-      <c r="G78" s="11">
+      <c r="L78" s="11">
         <v>-12263</v>
       </c>
-      <c r="H78" s="11">
+      <c r="M78" s="11">
         <v>-16039</v>
       </c>
-      <c r="I78" s="11">
+      <c r="N78" s="11">
         <v>-41666</v>
       </c>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C79" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D79" s="13"/>
       <c r="E79" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F79" s="13">
+        <v>18</v>
+      </c>
+      <c r="F79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K79" s="13">
         <v>-23574</v>
       </c>
-      <c r="G79" s="13">
+      <c r="L79" s="13">
         <v>-30426</v>
       </c>
-      <c r="H79" s="13">
+      <c r="M79" s="13">
         <v>-49363</v>
       </c>
-      <c r="I79" s="13">
+      <c r="N79" s="13">
         <v>-33548</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="14" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="15"/>
@@ -2143,21 +3043,36 @@
         <v>0</v>
       </c>
       <c r="F80" s="15">
+        <v>0</v>
+      </c>
+      <c r="G80" s="15">
+        <v>0</v>
+      </c>
+      <c r="H80" s="15">
+        <v>0</v>
+      </c>
+      <c r="I80" s="15">
+        <v>0</v>
+      </c>
+      <c r="J80" s="15">
+        <v>0</v>
+      </c>
+      <c r="K80" s="15">
         <v>-52749</v>
       </c>
-      <c r="G80" s="15">
+      <c r="L80" s="15">
         <v>-42689</v>
       </c>
-      <c r="H80" s="15">
+      <c r="M80" s="15">
         <v>-65402</v>
       </c>
-      <c r="I80" s="15">
+      <c r="N80" s="15">
         <v>-75214</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="16" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C81" s="17"/>
       <c r="D81" s="17"/>
@@ -2166,10 +3081,15 @@
       <c r="G81" s="17"/>
       <c r="H81" s="17"/>
       <c r="I81" s="17"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="17"/>
+      <c r="K81" s="17"/>
+      <c r="L81" s="17"/>
+      <c r="M81" s="17"/>
+      <c r="N81" s="17"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="14" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="15"/>
@@ -2188,37 +3108,67 @@
       <c r="I82" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="15">
+        <v>0</v>
+      </c>
+      <c r="K82" s="15">
+        <v>0</v>
+      </c>
+      <c r="L82" s="15">
+        <v>0</v>
+      </c>
+      <c r="M82" s="15">
+        <v>0</v>
+      </c>
+      <c r="N82" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="18" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C83" s="19" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D83" s="19"/>
-      <c r="E83" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="G83" s="19" t="s">
-        <v>13</v>
+      <c r="E83" s="19">
+        <v>494</v>
+      </c>
+      <c r="F83" s="19">
+        <v>0</v>
+      </c>
+      <c r="G83" s="19">
+        <v>1622</v>
       </c>
       <c r="H83" s="19" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="K83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="L83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="M83" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="N83" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
@@ -2236,30 +3186,60 @@
       <c r="I84" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="15">
+        <v>0</v>
+      </c>
+      <c r="K84" s="15">
+        <v>0</v>
+      </c>
+      <c r="L84" s="15">
+        <v>0</v>
+      </c>
+      <c r="M84" s="15">
+        <v>0</v>
+      </c>
+      <c r="N84" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
+        <v>-1504729</v>
+      </c>
+      <c r="F85" s="19">
+        <v>-1952775</v>
+      </c>
+      <c r="G85" s="19">
+        <v>-2314766</v>
+      </c>
+      <c r="H85" s="19">
+        <v>-2522130</v>
+      </c>
+      <c r="I85" s="19">
+        <v>-2956609</v>
+      </c>
+      <c r="J85" s="19">
         <v>-3353430</v>
       </c>
-      <c r="F85" s="19">
+      <c r="K85" s="19">
         <v>-3695733</v>
       </c>
-      <c r="G85" s="19">
+      <c r="L85" s="19">
         <v>-3843773</v>
       </c>
-      <c r="H85" s="19">
+      <c r="M85" s="19">
         <v>-4568241</v>
       </c>
-      <c r="I85" s="19">
+      <c r="N85" s="19">
         <v>-4870321</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -2268,8 +3248,13 @@
       <c r="G86" s="1"/>
       <c r="H86" s="1"/>
       <c r="I86" s="1"/>
-    </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1"/>
+      <c r="K86" s="1"/>
+      <c r="L86" s="1"/>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -2278,8 +3263,13 @@
       <c r="G87" s="1"/>
       <c r="H87" s="1"/>
       <c r="I87" s="1"/>
-    </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1"/>
+      <c r="K87" s="1"/>
+      <c r="L87" s="1"/>
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -2288,10 +3278,15 @@
       <c r="G88" s="1"/>
       <c r="H88" s="1"/>
       <c r="I88" s="1"/>
-    </row>
-    <row r="89" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J88" s="1"/>
+      <c r="K88" s="1"/>
+      <c r="L88" s="1"/>
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B89" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
@@ -2310,8 +3305,23 @@
       <c r="I89" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K89" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L89" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M89" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N89" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -2320,10 +3330,15 @@
       <c r="G90" s="1"/>
       <c r="H90" s="1"/>
       <c r="I90" s="1"/>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1"/>
+      <c r="K90" s="1"/>
+      <c r="L90" s="1"/>
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C91" s="9"/>
       <c r="D91" s="9"/>
@@ -2332,128 +3347,208 @@
       <c r="G91" s="9"/>
       <c r="H91" s="9"/>
       <c r="I91" s="9"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="9"/>
+      <c r="K91" s="9"/>
+      <c r="L91" s="9"/>
+      <c r="M91" s="9"/>
+      <c r="N91" s="9"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H92" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
+        <v>541991</v>
+      </c>
+      <c r="F93" s="13">
+        <v>288488</v>
+      </c>
+      <c r="G93" s="13">
+        <v>726918</v>
+      </c>
+      <c r="H93" s="13">
+        <v>193933</v>
+      </c>
+      <c r="I93" s="13">
+        <v>310079</v>
+      </c>
+      <c r="J93" s="13">
         <v>233686</v>
       </c>
-      <c r="F93" s="13">
+      <c r="K93" s="13">
         <v>208727</v>
       </c>
-      <c r="G93" s="13">
+      <c r="L93" s="13">
         <v>243010</v>
       </c>
-      <c r="H93" s="13">
+      <c r="M93" s="13">
         <v>230027</v>
       </c>
-      <c r="I93" s="13">
+      <c r="N93" s="13">
         <v>396742</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C94" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
+        <v>556199</v>
+      </c>
+      <c r="F94" s="11">
+        <v>768149</v>
+      </c>
+      <c r="G94" s="11">
+        <v>1102129</v>
+      </c>
+      <c r="H94" s="11">
+        <v>668940</v>
+      </c>
+      <c r="I94" s="11">
+        <v>111749</v>
+      </c>
+      <c r="J94" s="11">
         <v>248291</v>
       </c>
-      <c r="F94" s="11">
+      <c r="K94" s="11">
         <v>-74443</v>
       </c>
-      <c r="G94" s="11">
+      <c r="L94" s="11">
         <v>-61844</v>
       </c>
-      <c r="H94" s="11">
+      <c r="M94" s="11">
         <v>230056</v>
       </c>
-      <c r="I94" s="11">
+      <c r="N94" s="11">
         <v>406515</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
+        <v>10104</v>
+      </c>
+      <c r="F95" s="13">
+        <v>4900</v>
+      </c>
+      <c r="G95" s="13">
+        <v>8231</v>
+      </c>
+      <c r="H95" s="13">
+        <v>2045</v>
+      </c>
+      <c r="I95" s="13">
+        <v>1779</v>
+      </c>
+      <c r="J95" s="13">
         <v>82</v>
       </c>
-      <c r="F95" s="13">
+      <c r="K95" s="13">
         <v>-2019</v>
       </c>
-      <c r="G95" s="13">
+      <c r="L95" s="13">
         <v>3057</v>
       </c>
-      <c r="H95" s="13">
+      <c r="M95" s="13">
         <v>3615</v>
       </c>
-      <c r="I95" s="13">
+      <c r="N95" s="13">
         <v>10711</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="14" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
+        <v>1108294</v>
+      </c>
+      <c r="F96" s="15">
+        <v>1061537</v>
+      </c>
+      <c r="G96" s="15">
+        <v>1837278</v>
+      </c>
+      <c r="H96" s="15">
+        <v>864918</v>
+      </c>
+      <c r="I96" s="15">
+        <v>423607</v>
+      </c>
+      <c r="J96" s="15">
         <v>482059</v>
       </c>
-      <c r="F96" s="15">
+      <c r="K96" s="15">
         <v>132265</v>
       </c>
-      <c r="G96" s="15">
+      <c r="L96" s="15">
         <v>184223</v>
       </c>
-      <c r="H96" s="15">
+      <c r="M96" s="15">
         <v>463698</v>
       </c>
-      <c r="I96" s="15">
+      <c r="N96" s="15">
         <v>813968</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="8" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C97" s="9"/>
       <c r="D97" s="9"/>
@@ -2462,106 +3557,171 @@
       <c r="G97" s="9"/>
       <c r="H97" s="9"/>
       <c r="I97" s="9"/>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="9"/>
+      <c r="K97" s="9"/>
+      <c r="L97" s="9"/>
+      <c r="M97" s="9"/>
+      <c r="N97" s="9"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C98" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D98" s="11"/>
       <c r="E98" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F98" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G98" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H98" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="I98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M98" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N98" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D99" s="13"/>
+      <c r="E99" s="13">
+        <v>0</v>
+      </c>
+      <c r="F99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M99" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B100" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C99" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D99" s="13"/>
-      <c r="E99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H99" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="I99" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B100" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="C100" s="11" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="F100" s="11">
+        <v>18</v>
+      </c>
+      <c r="F100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J100" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K100" s="11">
         <v>15620</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>4311</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>6386</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>17606</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="12" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C101" s="13" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D101" s="13"/>
       <c r="E101" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F101" s="13">
+        <v>18</v>
+      </c>
+      <c r="F101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K101" s="13">
         <v>11860</v>
       </c>
-      <c r="G101" s="13">
+      <c r="L101" s="13">
         <v>4189</v>
       </c>
-      <c r="H101" s="13">
+      <c r="M101" s="13">
         <v>11824</v>
       </c>
-      <c r="I101" s="13">
+      <c r="N101" s="13">
         <v>7887</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="14" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C102" s="15"/>
       <c r="D102" s="15"/>
@@ -2569,21 +3729,36 @@
         <v>0</v>
       </c>
       <c r="F102" s="15">
+        <v>0</v>
+      </c>
+      <c r="G102" s="15">
+        <v>0</v>
+      </c>
+      <c r="H102" s="15">
+        <v>0</v>
+      </c>
+      <c r="I102" s="15">
+        <v>0</v>
+      </c>
+      <c r="J102" s="15">
+        <v>0</v>
+      </c>
+      <c r="K102" s="15">
         <v>27480</v>
       </c>
-      <c r="G102" s="15">
+      <c r="L102" s="15">
         <v>8500</v>
       </c>
-      <c r="H102" s="15">
+      <c r="M102" s="15">
         <v>18210</v>
       </c>
-      <c r="I102" s="15">
+      <c r="N102" s="15">
         <v>25493</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="16" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C103" s="17"/>
       <c r="D103" s="17"/>
@@ -2592,10 +3767,15 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
       <c r="I103" s="17"/>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="17"/>
+      <c r="K103" s="17"/>
+      <c r="L103" s="17"/>
+      <c r="M103" s="17"/>
+      <c r="N103" s="17"/>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="14" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C104" s="15"/>
       <c r="D104" s="15"/>
@@ -2614,26 +3794,56 @@
       <c r="I104" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J104" s="15">
+        <v>0</v>
+      </c>
+      <c r="K104" s="15">
+        <v>0</v>
+      </c>
+      <c r="L104" s="15">
+        <v>0</v>
+      </c>
+      <c r="M104" s="15">
+        <v>0</v>
+      </c>
+      <c r="N104" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="18" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
+        <v>1108294</v>
+      </c>
+      <c r="F105" s="19">
+        <v>1061537</v>
+      </c>
+      <c r="G105" s="19">
+        <v>1837278</v>
+      </c>
+      <c r="H105" s="19">
+        <v>864918</v>
+      </c>
+      <c r="I105" s="19">
+        <v>423607</v>
+      </c>
+      <c r="J105" s="19">
         <v>482059</v>
       </c>
-      <c r="F105" s="19">
+      <c r="K105" s="19">
         <v>159745</v>
       </c>
-      <c r="G105" s="19">
+      <c r="L105" s="19">
         <v>192723</v>
       </c>
-      <c r="H105" s="19">
+      <c r="M105" s="19">
         <v>481908</v>
       </c>
-      <c r="I105" s="19">
+      <c r="N105" s="19">
         <v>839461</v>
       </c>
     </row>

--- a/database/industries/lastic/petayer/product/quarterly_seprated.xlsx
+++ b/database/industries/lastic/petayer/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\lastic\petayer\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3DCCC6-77ED-4DA1-AC7A-DA4719CD5057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD437FD0-0F4E-428D-A6CA-30BD83DB6EB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="55">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -37,9 +37,6 @@
     <t>مقدار فروش</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/06</t>
-  </si>
-  <si>
     <t>فصل سوم منتهی به 1399/09</t>
   </si>
   <si>
@@ -65,6 +62,9 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/12</t>
   </si>
   <si>
     <t>مقدار فروش داخلی</t>
@@ -667,12 +667,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -687,7 +687,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -704,7 +704,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -721,7 +721,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -736,7 +736,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -753,7 +753,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -770,7 +770,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -785,7 +785,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -822,7 +822,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -837,7 +837,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -854,7 +854,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -893,7 +893,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -902,37 +902,37 @@
       </c>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
-        <v>2830</v>
+        <v>2158</v>
       </c>
       <c r="F12" s="13">
-        <v>2158</v>
+        <v>2676</v>
       </c>
       <c r="G12" s="13">
-        <v>2676</v>
+        <v>1916</v>
       </c>
       <c r="H12" s="13">
-        <v>1916</v>
+        <v>2063</v>
       </c>
       <c r="I12" s="13">
-        <v>2063</v>
-      </c>
-      <c r="J12" s="13">
         <v>2064</v>
       </c>
-      <c r="K12" s="13" t="s">
-        <v>18</v>
+      <c r="J12" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K12" s="13">
+        <v>1769</v>
       </c>
       <c r="L12" s="13">
-        <v>1769</v>
+        <v>2003</v>
       </c>
       <c r="M12" s="13">
-        <v>2003</v>
+        <v>2171</v>
       </c>
       <c r="N12" s="13">
-        <v>2171</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="10" t="s">
         <v>20</v>
       </c>
@@ -941,37 +941,37 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>4388</v>
+        <v>4514</v>
       </c>
       <c r="F13" s="11">
-        <v>4514</v>
+        <v>4520</v>
       </c>
       <c r="G13" s="11">
-        <v>4520</v>
+        <v>4145</v>
       </c>
       <c r="H13" s="11">
-        <v>4145</v>
+        <v>4123</v>
       </c>
       <c r="I13" s="11">
-        <v>4123</v>
-      </c>
-      <c r="J13" s="11">
         <v>4686</v>
       </c>
-      <c r="K13" s="11" t="s">
-        <v>18</v>
+      <c r="J13" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" s="11">
+        <v>4705</v>
       </c>
       <c r="L13" s="11">
-        <v>4705</v>
+        <v>4764</v>
       </c>
       <c r="M13" s="11">
-        <v>4764</v>
+        <v>5031</v>
       </c>
       <c r="N13" s="11">
-        <v>5031</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4795</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="12" t="s">
         <v>21</v>
       </c>
@@ -980,74 +980,74 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="F14" s="13">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G14" s="13">
         <v>45</v>
       </c>
       <c r="H14" s="13">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I14" s="13">
-        <v>32</v>
-      </c>
-      <c r="J14" s="13">
         <v>41</v>
       </c>
-      <c r="K14" s="13" t="s">
-        <v>18</v>
+      <c r="J14" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" s="13">
+        <v>33</v>
       </c>
       <c r="L14" s="13">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="M14" s="13">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="N14" s="13">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15"/>
       <c r="E15" s="15">
-        <v>7278</v>
+        <v>6714</v>
       </c>
       <c r="F15" s="15">
-        <v>6714</v>
+        <v>7241</v>
       </c>
       <c r="G15" s="15">
-        <v>7241</v>
+        <v>6106</v>
       </c>
       <c r="H15" s="15">
-        <v>6106</v>
+        <v>6218</v>
       </c>
       <c r="I15" s="15">
-        <v>6218</v>
+        <v>6791</v>
       </c>
       <c r="J15" s="15">
-        <v>6791</v>
+        <v>0</v>
       </c>
       <c r="K15" s="15">
-        <v>0</v>
+        <v>6507</v>
       </c>
       <c r="L15" s="15">
-        <v>6507</v>
+        <v>6792</v>
       </c>
       <c r="M15" s="15">
-        <v>6792</v>
+        <v>7261</v>
       </c>
       <c r="N15" s="15">
-        <v>7261</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6838</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>23</v>
       </c>
@@ -1064,7 +1064,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1096,14 +1096,14 @@
       <c r="L17" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M17" s="11" t="s">
-        <v>18</v>
+      <c r="M17" s="11">
+        <v>0</v>
       </c>
       <c r="N17" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>24</v>
       </c>
@@ -1111,8 +1111,8 @@
         <v>17</v>
       </c>
       <c r="D18" s="13"/>
-      <c r="E18" s="13">
-        <v>0</v>
+      <c r="E18" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F18" s="13" t="s">
         <v>18</v>
@@ -1142,7 +1142,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>19</v>
       </c>
@@ -1168,20 +1168,20 @@
       <c r="J19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K19" s="11" t="s">
-        <v>18</v>
+      <c r="K19" s="11">
+        <v>24</v>
       </c>
       <c r="L19" s="11">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M19" s="11">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="N19" s="11">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>20</v>
       </c>
@@ -1207,20 +1207,20 @@
       <c r="J20" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K20" s="13" t="s">
-        <v>18</v>
+      <c r="K20" s="13">
+        <v>50</v>
       </c>
       <c r="L20" s="13">
+        <v>77</v>
+      </c>
+      <c r="M20" s="13">
+        <v>52</v>
+      </c>
+      <c r="N20" s="13">
         <v>50</v>
       </c>
-      <c r="M20" s="13">
-        <v>77</v>
-      </c>
-      <c r="N20" s="13">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>25</v>
       </c>
@@ -1245,19 +1245,19 @@
         <v>0</v>
       </c>
       <c r="K21" s="15">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="L21" s="15">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="M21" s="15">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="N21" s="15">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>26</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="M22" s="17"/>
       <c r="N22" s="17"/>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="14" t="s">
         <v>27</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="18" t="s">
         <v>28</v>
       </c>
@@ -1320,14 +1320,14 @@
       </c>
       <c r="D24" s="19"/>
       <c r="E24" s="19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F24" s="19">
-        <v>0</v>
-      </c>
-      <c r="G24" s="19">
         <v>-6</v>
       </c>
+      <c r="G24" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="H24" s="19" t="s">
         <v>18</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="14" t="s">
         <v>30</v>
       </c>
@@ -1371,11 +1371,11 @@
       <c r="I25" s="15">
         <v>0</v>
       </c>
-      <c r="J25" s="15">
-        <v>0</v>
-      </c>
-      <c r="K25" s="15" t="s">
-        <v>18</v>
+      <c r="J25" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K25" s="15">
+        <v>0</v>
       </c>
       <c r="L25" s="15">
         <v>0</v>
@@ -1387,44 +1387,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="19"/>
       <c r="E26" s="19">
-        <v>7280</v>
+        <v>6714</v>
       </c>
       <c r="F26" s="19">
-        <v>6714</v>
+        <v>7235</v>
       </c>
       <c r="G26" s="19">
-        <v>7235</v>
+        <v>6106</v>
       </c>
       <c r="H26" s="19">
-        <v>6106</v>
+        <v>6218</v>
       </c>
       <c r="I26" s="19">
-        <v>6218</v>
+        <v>6791</v>
       </c>
       <c r="J26" s="19">
-        <v>6791</v>
+        <v>0</v>
       </c>
       <c r="K26" s="19">
-        <v>0</v>
+        <v>6581</v>
       </c>
       <c r="L26" s="19">
-        <v>6581</v>
+        <v>6897</v>
       </c>
       <c r="M26" s="19">
-        <v>6897</v>
+        <v>7375</v>
       </c>
       <c r="N26" s="19">
-        <v>7375</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6911</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1439,7 +1439,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1454,7 +1454,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1469,7 +1469,7 @@
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
     </row>
-    <row r="30" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>32</v>
       </c>
@@ -1506,7 +1506,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1521,7 +1521,7 @@
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="8" t="s">
         <v>33</v>
       </c>
@@ -1538,7 +1538,7 @@
       <c r="M32" s="9"/>
       <c r="N32" s="9"/>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="10" t="s">
         <v>16</v>
       </c>
@@ -1577,7 +1577,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="12" t="s">
         <v>19</v>
       </c>
@@ -1586,37 +1586,37 @@
       </c>
       <c r="D34" s="13"/>
       <c r="E34" s="13">
-        <v>1130528</v>
+        <v>996588</v>
       </c>
       <c r="F34" s="13">
-        <v>996588</v>
+        <v>1616599</v>
       </c>
       <c r="G34" s="13">
-        <v>1616599</v>
+        <v>1083544</v>
       </c>
       <c r="H34" s="13">
-        <v>1083544</v>
+        <v>1149756</v>
       </c>
       <c r="I34" s="13">
-        <v>1149756</v>
-      </c>
-      <c r="J34" s="13">
         <v>1261918</v>
       </c>
-      <c r="K34" s="13" t="s">
-        <v>18</v>
+      <c r="J34" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K34" s="13">
+        <v>1237086</v>
       </c>
       <c r="L34" s="13">
-        <v>1237086</v>
+        <v>1520706</v>
       </c>
       <c r="M34" s="13">
-        <v>1520706</v>
+        <v>1788230</v>
       </c>
       <c r="N34" s="13">
-        <v>1788230</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1722023</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>20</v>
       </c>
@@ -1625,37 +1625,37 @@
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11">
-        <v>1466177</v>
+        <v>2047327</v>
       </c>
       <c r="F35" s="11">
-        <v>2047327</v>
+        <v>2598576</v>
       </c>
       <c r="G35" s="11">
-        <v>2598576</v>
+        <v>2288232</v>
       </c>
       <c r="H35" s="11">
-        <v>2288232</v>
+        <v>2248458</v>
       </c>
       <c r="I35" s="11">
-        <v>2248458</v>
-      </c>
-      <c r="J35" s="11">
         <v>2559915</v>
       </c>
-      <c r="K35" s="11" t="s">
-        <v>18</v>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11">
+        <v>2731623</v>
       </c>
       <c r="L35" s="11">
-        <v>2731623</v>
+        <v>3428940</v>
       </c>
       <c r="M35" s="11">
-        <v>3428940</v>
+        <v>3777454</v>
       </c>
       <c r="N35" s="11">
-        <v>3777454</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3804596</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>21</v>
       </c>
@@ -1664,74 +1664,74 @@
       </c>
       <c r="D36" s="13"/>
       <c r="E36" s="13">
-        <v>16812</v>
+        <v>15368</v>
       </c>
       <c r="F36" s="13">
-        <v>15368</v>
+        <v>18278</v>
       </c>
       <c r="G36" s="13">
-        <v>18278</v>
+        <v>15272</v>
       </c>
       <c r="H36" s="13">
-        <v>15272</v>
+        <v>10421</v>
       </c>
       <c r="I36" s="13">
-        <v>10421</v>
-      </c>
-      <c r="J36" s="13">
         <v>13656</v>
       </c>
-      <c r="K36" s="13" t="s">
-        <v>18</v>
+      <c r="J36" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K36" s="13">
+        <v>16598</v>
       </c>
       <c r="L36" s="13">
-        <v>16598</v>
+        <v>16891</v>
       </c>
       <c r="M36" s="13">
-        <v>16891</v>
+        <v>43391</v>
       </c>
       <c r="N36" s="13">
-        <v>43391</v>
-      </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+        <v>45729</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>2613517</v>
+        <v>3059283</v>
       </c>
       <c r="F37" s="15">
-        <v>3059283</v>
+        <v>4233453</v>
       </c>
       <c r="G37" s="15">
-        <v>4233453</v>
+        <v>3387048</v>
       </c>
       <c r="H37" s="15">
-        <v>3387048</v>
+        <v>3408635</v>
       </c>
       <c r="I37" s="15">
-        <v>3408635</v>
+        <v>3835489</v>
       </c>
       <c r="J37" s="15">
-        <v>3835489</v>
+        <v>0</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>3985307</v>
       </c>
       <c r="L37" s="15">
-        <v>3985307</v>
+        <v>4966537</v>
       </c>
       <c r="M37" s="15">
-        <v>4966537</v>
+        <v>5609075</v>
       </c>
       <c r="N37" s="15">
-        <v>5609075</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5572348</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="8" t="s">
         <v>35</v>
       </c>
@@ -1748,7 +1748,7 @@
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="10" t="s">
         <v>16</v>
       </c>
@@ -1780,14 +1780,14 @@
       <c r="L39" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M39" s="11" t="s">
-        <v>18</v>
+      <c r="M39" s="11">
+        <v>0</v>
       </c>
       <c r="N39" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>24</v>
       </c>
@@ -1795,8 +1795,8 @@
         <v>34</v>
       </c>
       <c r="D40" s="13"/>
-      <c r="E40" s="13">
-        <v>0</v>
+      <c r="E40" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F40" s="13" t="s">
         <v>18</v>
@@ -1826,7 +1826,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="10" t="s">
         <v>19</v>
       </c>
@@ -1852,20 +1852,20 @@
       <c r="J41" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="K41" s="11" t="s">
-        <v>18</v>
+      <c r="K41" s="11">
+        <v>16574</v>
       </c>
       <c r="L41" s="11">
-        <v>16574</v>
+        <v>22425</v>
       </c>
       <c r="M41" s="11">
-        <v>22425</v>
+        <v>59272</v>
       </c>
       <c r="N41" s="11">
-        <v>59272</v>
-      </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64277</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="12" t="s">
         <v>20</v>
       </c>
@@ -1891,20 +1891,20 @@
       <c r="J42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="K42" s="13" t="s">
-        <v>18</v>
+      <c r="K42" s="13">
+        <v>34615</v>
       </c>
       <c r="L42" s="13">
-        <v>34615</v>
+        <v>61187</v>
       </c>
       <c r="M42" s="13">
-        <v>61187</v>
+        <v>41435</v>
       </c>
       <c r="N42" s="13">
-        <v>41435</v>
-      </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+        <v>43567</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="14" t="s">
         <v>25</v>
       </c>
@@ -1929,19 +1929,19 @@
         <v>0</v>
       </c>
       <c r="K43" s="15">
-        <v>0</v>
+        <v>51189</v>
       </c>
       <c r="L43" s="15">
-        <v>51189</v>
+        <v>83612</v>
       </c>
       <c r="M43" s="15">
-        <v>83612</v>
+        <v>100707</v>
       </c>
       <c r="N43" s="15">
-        <v>100707</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>109790</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="16" t="s">
         <v>36</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="M44" s="17"/>
       <c r="N44" s="17"/>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
         <v>27</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="18" t="s">
         <v>28</v>
       </c>
@@ -2004,14 +2004,14 @@
       </c>
       <c r="D46" s="19"/>
       <c r="E46" s="19">
-        <v>-744</v>
+        <v>0</v>
       </c>
       <c r="F46" s="19">
-        <v>0</v>
-      </c>
-      <c r="G46" s="19">
         <v>-4151</v>
       </c>
+      <c r="G46" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="H46" s="19" t="s">
         <v>18</v>
       </c>
@@ -2034,7 +2034,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="14" t="s">
         <v>30</v>
       </c>
@@ -2043,25 +2043,25 @@
       </c>
       <c r="D47" s="15"/>
       <c r="E47" s="15">
-        <v>-32938</v>
+        <v>-79043</v>
       </c>
       <c r="F47" s="15">
-        <v>-79043</v>
+        <v>-120553</v>
       </c>
       <c r="G47" s="15">
-        <v>-120553</v>
+        <v>-28419</v>
       </c>
       <c r="H47" s="15">
-        <v>-28419</v>
+        <v>0</v>
       </c>
       <c r="I47" s="15">
         <v>0</v>
       </c>
-      <c r="J47" s="15">
-        <v>0</v>
-      </c>
-      <c r="K47" s="15" t="s">
-        <v>18</v>
+      <c r="J47" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K47" s="15">
+        <v>0</v>
       </c>
       <c r="L47" s="15">
         <v>0</v>
@@ -2073,44 +2073,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C48" s="19"/>
       <c r="D48" s="19"/>
       <c r="E48" s="19">
-        <v>2579835</v>
+        <v>2980240</v>
       </c>
       <c r="F48" s="19">
-        <v>2980240</v>
+        <v>4108749</v>
       </c>
       <c r="G48" s="19">
-        <v>4108749</v>
+        <v>3358629</v>
       </c>
       <c r="H48" s="19">
-        <v>3358629</v>
+        <v>3408635</v>
       </c>
       <c r="I48" s="19">
-        <v>3408635</v>
+        <v>3835489</v>
       </c>
       <c r="J48" s="19">
-        <v>3835489</v>
+        <v>0</v>
       </c>
       <c r="K48" s="19">
-        <v>0</v>
+        <v>4036496</v>
       </c>
       <c r="L48" s="19">
-        <v>4036496</v>
+        <v>5050149</v>
       </c>
       <c r="M48" s="19">
-        <v>5050149</v>
+        <v>5709782</v>
       </c>
       <c r="N48" s="19">
-        <v>5709782</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5682138</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -2125,7 +2125,7 @@
       <c r="M49" s="1"/>
       <c r="N49" s="1"/>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2140,7 +2140,7 @@
       <c r="M50" s="1"/>
       <c r="N50" s="1"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2155,7 +2155,7 @@
       <c r="M51" s="1"/>
       <c r="N51" s="1"/>
     </row>
-    <row r="52" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
         <v>37</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2207,7 +2207,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="8" t="s">
         <v>38</v>
       </c>
@@ -2224,7 +2224,7 @@
       <c r="M54" s="9"/>
       <c r="N54" s="9"/>
     </row>
-    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B55" s="10" t="s">
         <v>16</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="12" t="s">
         <v>19</v>
       </c>
@@ -2272,37 +2272,37 @@
       </c>
       <c r="D56" s="13"/>
       <c r="E56" s="13">
-        <v>399479859</v>
+        <v>446714219</v>
       </c>
       <c r="F56" s="13">
-        <v>446714219</v>
+        <v>581588015</v>
       </c>
       <c r="G56" s="13">
-        <v>581588015</v>
+        <v>565524008</v>
       </c>
       <c r="H56" s="13">
-        <v>565524008</v>
+        <v>545851672</v>
       </c>
       <c r="I56" s="13">
-        <v>545851672</v>
+        <v>608153253</v>
       </c>
       <c r="J56" s="13">
-        <v>608153253</v>
+        <v>670483278</v>
       </c>
       <c r="K56" s="13">
-        <v>670483278</v>
+        <v>699313737</v>
       </c>
       <c r="L56" s="13">
-        <v>699313737</v>
+        <v>759214179</v>
       </c>
       <c r="M56" s="13">
-        <v>759214179</v>
+        <v>823689544</v>
       </c>
       <c r="N56" s="13">
-        <v>823689544</v>
-      </c>
-    </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+        <v>870148055</v>
+      </c>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="10" t="s">
         <v>20</v>
       </c>
@@ -2311,37 +2311,37 @@
       </c>
       <c r="D57" s="11"/>
       <c r="E57" s="11">
-        <v>334133318</v>
+        <v>451400975</v>
       </c>
       <c r="F57" s="11">
-        <v>451400975</v>
+        <v>571360619</v>
       </c>
       <c r="G57" s="11">
-        <v>571360619</v>
+        <v>552046321</v>
       </c>
       <c r="H57" s="11">
-        <v>552046321</v>
+        <v>544193791</v>
       </c>
       <c r="I57" s="11">
-        <v>544193791</v>
+        <v>546290013</v>
       </c>
       <c r="J57" s="11">
-        <v>546290013</v>
+        <v>549673531</v>
       </c>
       <c r="K57" s="11">
-        <v>549673531</v>
+        <v>580578746</v>
       </c>
       <c r="L57" s="11">
-        <v>580578746</v>
+        <v>719760705</v>
       </c>
       <c r="M57" s="11">
-        <v>719760705</v>
+        <v>750835619</v>
       </c>
       <c r="N57" s="11">
-        <v>750835619</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>793450678</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="12" t="s">
         <v>21</v>
       </c>
@@ -2350,37 +2350,37 @@
       </c>
       <c r="D58" s="13"/>
       <c r="E58" s="13">
-        <v>280200000</v>
+        <v>365690476</v>
       </c>
       <c r="F58" s="13">
-        <v>365690476</v>
+        <v>406133333</v>
       </c>
       <c r="G58" s="13">
-        <v>406133333</v>
+        <v>339377778</v>
       </c>
       <c r="H58" s="13">
-        <v>339377778</v>
+        <v>325406250</v>
       </c>
       <c r="I58" s="13">
-        <v>325406250</v>
+        <v>333073171</v>
       </c>
       <c r="J58" s="13">
-        <v>333073171</v>
+        <v>338758621</v>
       </c>
       <c r="K58" s="13">
-        <v>338758621</v>
+        <v>502969697</v>
       </c>
       <c r="L58" s="13">
-        <v>502969697</v>
+        <v>675640000</v>
       </c>
       <c r="M58" s="13">
-        <v>675640000</v>
+        <v>735440678</v>
       </c>
       <c r="N58" s="13">
-        <v>735440678</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>714515625</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>40</v>
       </c>
@@ -2397,7 +2397,7 @@
       <c r="M59" s="9"/>
       <c r="N59" s="9"/>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>16</v>
       </c>
@@ -2432,11 +2432,11 @@
       <c r="M60" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="N60" s="11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="N60" s="11">
+        <v>1946000000</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="12" t="s">
         <v>24</v>
       </c>
@@ -2475,7 +2475,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>19</v>
       </c>
@@ -2498,23 +2498,23 @@
       <c r="I62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J62" s="11" t="s">
-        <v>18</v>
+      <c r="J62" s="11">
+        <v>658750000</v>
       </c>
       <c r="K62" s="11">
-        <v>658750000</v>
+        <v>690583333</v>
       </c>
       <c r="L62" s="11">
-        <v>690583333</v>
+        <v>800892857</v>
       </c>
       <c r="M62" s="11">
-        <v>800892857</v>
+        <v>956000000</v>
       </c>
       <c r="N62" s="11">
-        <v>956000000</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2921681818</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="12" t="s">
         <v>20</v>
       </c>
@@ -2537,23 +2537,23 @@
       <c r="I63" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J63" s="13" t="s">
-        <v>18</v>
+      <c r="J63" s="13">
+        <v>644254545</v>
       </c>
       <c r="K63" s="13">
-        <v>644254545</v>
+        <v>692300000</v>
       </c>
       <c r="L63" s="13">
-        <v>692300000</v>
+        <v>794636364</v>
       </c>
       <c r="M63" s="13">
-        <v>794636364</v>
+        <v>796826923</v>
       </c>
       <c r="N63" s="13">
-        <v>796826923</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>871340000</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2568,7 +2568,7 @@
       <c r="M64" s="1"/>
       <c r="N64" s="1"/>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2583,7 +2583,7 @@
       <c r="M65" s="1"/>
       <c r="N65" s="1"/>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2598,7 +2598,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B67" s="7" t="s">
         <v>41</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2650,7 +2650,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
         <v>42</v>
       </c>
@@ -2667,7 +2667,7 @@
       <c r="M69" s="9"/>
       <c r="N69" s="9"/>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="10" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="12" t="s">
         <v>19</v>
       </c>
@@ -2715,37 +2715,37 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>-588537</v>
+        <v>-672841</v>
       </c>
       <c r="F71" s="13">
-        <v>-672841</v>
+        <v>-825922</v>
       </c>
       <c r="G71" s="13">
-        <v>-825922</v>
+        <v>-889611</v>
       </c>
       <c r="H71" s="13">
-        <v>-889611</v>
+        <v>-816013</v>
       </c>
       <c r="I71" s="13">
-        <v>-816013</v>
+        <v>-1028232</v>
       </c>
       <c r="J71" s="13">
-        <v>-1028232</v>
+        <v>-994120</v>
       </c>
       <c r="K71" s="13">
-        <v>-994120</v>
+        <v>-994076</v>
       </c>
       <c r="L71" s="13">
-        <v>-994076</v>
+        <v>-1290679</v>
       </c>
       <c r="M71" s="13">
-        <v>-1290679</v>
+        <v>-1391488</v>
       </c>
       <c r="N71" s="13">
-        <v>-1391488</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-1320654</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>20</v>
       </c>
@@ -2754,37 +2754,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>-909978</v>
+        <v>-1269475</v>
       </c>
       <c r="F72" s="11">
-        <v>-1269475</v>
+        <v>-1480421</v>
       </c>
       <c r="G72" s="11">
-        <v>-1480421</v>
+        <v>-1619292</v>
       </c>
       <c r="H72" s="11">
-        <v>-1619292</v>
+        <v>-2131962</v>
       </c>
       <c r="I72" s="11">
-        <v>-2131962</v>
+        <v>-2311624</v>
       </c>
       <c r="J72" s="11">
-        <v>-2311624</v>
+        <v>-2637021</v>
       </c>
       <c r="K72" s="11">
-        <v>-2637021</v>
+        <v>-2793467</v>
       </c>
       <c r="L72" s="11">
-        <v>-2793467</v>
+        <v>-3198884</v>
       </c>
       <c r="M72" s="11">
-        <v>-3198884</v>
+        <v>-3370939</v>
       </c>
       <c r="N72" s="11">
-        <v>-3370939</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-3216832</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="12" t="s">
         <v>21</v>
       </c>
@@ -2793,74 +2793,74 @@
       </c>
       <c r="D73" s="13"/>
       <c r="E73" s="13">
-        <v>-6708</v>
+        <v>-10459</v>
       </c>
       <c r="F73" s="13">
-        <v>-10459</v>
+        <v>-10045</v>
       </c>
       <c r="G73" s="13">
-        <v>-10045</v>
+        <v>-13227</v>
       </c>
       <c r="H73" s="13">
-        <v>-13227</v>
+        <v>-8634</v>
       </c>
       <c r="I73" s="13">
-        <v>-8634</v>
+        <v>-13574</v>
       </c>
       <c r="J73" s="13">
-        <v>-13574</v>
+        <v>-11843</v>
       </c>
       <c r="K73" s="13">
-        <v>-11843</v>
+        <v>-13541</v>
       </c>
       <c r="L73" s="13">
-        <v>-13541</v>
+        <v>-13276</v>
       </c>
       <c r="M73" s="13">
-        <v>-13276</v>
+        <v>-32680</v>
       </c>
       <c r="N73" s="13">
-        <v>-32680</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-6191</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C74" s="15"/>
       <c r="D74" s="15"/>
       <c r="E74" s="15">
-        <v>-1505223</v>
+        <v>-1952775</v>
       </c>
       <c r="F74" s="15">
-        <v>-1952775</v>
+        <v>-2316388</v>
       </c>
       <c r="G74" s="15">
-        <v>-2316388</v>
+        <v>-2522130</v>
       </c>
       <c r="H74" s="15">
-        <v>-2522130</v>
+        <v>-2956609</v>
       </c>
       <c r="I74" s="15">
-        <v>-2956609</v>
+        <v>-3353430</v>
       </c>
       <c r="J74" s="15">
-        <v>-3353430</v>
+        <v>-3642984</v>
       </c>
       <c r="K74" s="15">
-        <v>-3642984</v>
+        <v>-3801084</v>
       </c>
       <c r="L74" s="15">
-        <v>-3801084</v>
+        <v>-4502839</v>
       </c>
       <c r="M74" s="15">
-        <v>-4502839</v>
+        <v>-4795107</v>
       </c>
       <c r="N74" s="15">
-        <v>-4795107</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4543677</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>44</v>
       </c>
@@ -2877,7 +2877,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2909,14 +2909,14 @@
       <c r="L76" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M76" s="11" t="s">
-        <v>18</v>
+      <c r="M76" s="11">
+        <v>0</v>
       </c>
       <c r="N76" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-619</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>24</v>
       </c>
@@ -2924,8 +2924,8 @@
         <v>34</v>
       </c>
       <c r="D77" s="13"/>
-      <c r="E77" s="13">
-        <v>0</v>
+      <c r="E77" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F77" s="13" t="s">
         <v>18</v>
@@ -2955,7 +2955,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>19</v>
       </c>
@@ -2978,23 +2978,23 @@
       <c r="I78" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J78" s="11" t="s">
-        <v>18</v>
+      <c r="J78" s="11">
+        <v>-29175</v>
       </c>
       <c r="K78" s="11">
-        <v>-29175</v>
+        <v>-12263</v>
       </c>
       <c r="L78" s="11">
-        <v>-12263</v>
+        <v>-16039</v>
       </c>
       <c r="M78" s="11">
-        <v>-16039</v>
+        <v>-41666</v>
       </c>
       <c r="N78" s="11">
-        <v>-41666</v>
-      </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-37402</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="12" t="s">
         <v>20</v>
       </c>
@@ -3017,23 +3017,23 @@
       <c r="I79" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="13" t="s">
-        <v>18</v>
+      <c r="J79" s="13">
+        <v>-23574</v>
       </c>
       <c r="K79" s="13">
-        <v>-23574</v>
+        <v>-30426</v>
       </c>
       <c r="L79" s="13">
-        <v>-30426</v>
+        <v>-49363</v>
       </c>
       <c r="M79" s="13">
-        <v>-49363</v>
+        <v>-33548</v>
       </c>
       <c r="N79" s="13">
-        <v>-33548</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-34519</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="14" t="s">
         <v>45</v>
       </c>
@@ -3055,22 +3055,22 @@
         <v>0</v>
       </c>
       <c r="J80" s="15">
-        <v>0</v>
+        <v>-52749</v>
       </c>
       <c r="K80" s="15">
-        <v>-52749</v>
+        <v>-42689</v>
       </c>
       <c r="L80" s="15">
-        <v>-42689</v>
+        <v>-65402</v>
       </c>
       <c r="M80" s="15">
-        <v>-65402</v>
+        <v>-75214</v>
       </c>
       <c r="N80" s="15">
-        <v>-75214</v>
-      </c>
-    </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-72540</v>
+      </c>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="16" t="s">
         <v>46</v>
       </c>
@@ -3087,7 +3087,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="17"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="14" t="s">
         <v>47</v>
       </c>
@@ -3124,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="18" t="s">
         <v>28</v>
       </c>
@@ -3133,14 +3133,14 @@
       </c>
       <c r="D83" s="19"/>
       <c r="E83" s="19">
-        <v>494</v>
+        <v>0</v>
       </c>
       <c r="F83" s="19">
-        <v>0</v>
-      </c>
-      <c r="G83" s="19">
         <v>1622</v>
       </c>
+      <c r="G83" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="H83" s="19" t="s">
         <v>18</v>
       </c>
@@ -3163,7 +3163,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>30</v>
       </c>
@@ -3202,44 +3202,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C85" s="19"/>
       <c r="D85" s="19"/>
       <c r="E85" s="19">
-        <v>-1504729</v>
+        <v>-1952775</v>
       </c>
       <c r="F85" s="19">
-        <v>-1952775</v>
+        <v>-2314766</v>
       </c>
       <c r="G85" s="19">
-        <v>-2314766</v>
+        <v>-2522130</v>
       </c>
       <c r="H85" s="19">
-        <v>-2522130</v>
+        <v>-2956609</v>
       </c>
       <c r="I85" s="19">
-        <v>-2956609</v>
+        <v>-3353430</v>
       </c>
       <c r="J85" s="19">
-        <v>-3353430</v>
+        <v>-3695733</v>
       </c>
       <c r="K85" s="19">
-        <v>-3695733</v>
+        <v>-3843773</v>
       </c>
       <c r="L85" s="19">
-        <v>-3843773</v>
+        <v>-4568241</v>
       </c>
       <c r="M85" s="19">
-        <v>-4568241</v>
+        <v>-4870321</v>
       </c>
       <c r="N85" s="19">
-        <v>-4870321</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-4616217</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3254,7 +3254,7 @@
       <c r="M86" s="1"/>
       <c r="N86" s="1"/>
     </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3269,7 +3269,7 @@
       <c r="M87" s="1"/>
       <c r="N87" s="1"/>
     </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3284,7 +3284,7 @@
       <c r="M88" s="1"/>
       <c r="N88" s="1"/>
     </row>
-    <row r="89" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B89" s="7" t="s">
         <v>48</v>
       </c>
@@ -3321,7 +3321,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3336,7 +3336,7 @@
       <c r="M90" s="1"/>
       <c r="N90" s="1"/>
     </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>49</v>
       </c>
@@ -3353,7 +3353,7 @@
       <c r="M91" s="9"/>
       <c r="N91" s="9"/>
     </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>16</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="12" t="s">
         <v>19</v>
       </c>
@@ -3401,37 +3401,37 @@
       </c>
       <c r="D93" s="13"/>
       <c r="E93" s="13">
-        <v>541991</v>
+        <v>288488</v>
       </c>
       <c r="F93" s="13">
-        <v>288488</v>
+        <v>726918</v>
       </c>
       <c r="G93" s="13">
-        <v>726918</v>
+        <v>193933</v>
       </c>
       <c r="H93" s="13">
-        <v>193933</v>
+        <v>310079</v>
       </c>
       <c r="I93" s="13">
-        <v>310079</v>
+        <v>233686</v>
       </c>
       <c r="J93" s="13">
-        <v>233686</v>
+        <v>208727</v>
       </c>
       <c r="K93" s="13">
-        <v>208727</v>
+        <v>243010</v>
       </c>
       <c r="L93" s="13">
-        <v>243010</v>
+        <v>230027</v>
       </c>
       <c r="M93" s="13">
-        <v>230027</v>
+        <v>396742</v>
       </c>
       <c r="N93" s="13">
-        <v>396742</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>401369</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="10" t="s">
         <v>20</v>
       </c>
@@ -3440,37 +3440,37 @@
       </c>
       <c r="D94" s="11"/>
       <c r="E94" s="11">
-        <v>556199</v>
+        <v>768149</v>
       </c>
       <c r="F94" s="11">
-        <v>768149</v>
+        <v>1102129</v>
       </c>
       <c r="G94" s="11">
-        <v>1102129</v>
+        <v>668940</v>
       </c>
       <c r="H94" s="11">
-        <v>668940</v>
+        <v>111749</v>
       </c>
       <c r="I94" s="11">
-        <v>111749</v>
+        <v>248291</v>
       </c>
       <c r="J94" s="11">
-        <v>248291</v>
+        <v>-74443</v>
       </c>
       <c r="K94" s="11">
-        <v>-74443</v>
+        <v>-61844</v>
       </c>
       <c r="L94" s="11">
-        <v>-61844</v>
+        <v>230056</v>
       </c>
       <c r="M94" s="11">
-        <v>230056</v>
+        <v>406515</v>
       </c>
       <c r="N94" s="11">
-        <v>406515</v>
-      </c>
-    </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+        <v>587764</v>
+      </c>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="12" t="s">
         <v>21</v>
       </c>
@@ -3479,74 +3479,74 @@
       </c>
       <c r="D95" s="13"/>
       <c r="E95" s="13">
-        <v>10104</v>
+        <v>4900</v>
       </c>
       <c r="F95" s="13">
-        <v>4900</v>
+        <v>8231</v>
       </c>
       <c r="G95" s="13">
-        <v>8231</v>
+        <v>2045</v>
       </c>
       <c r="H95" s="13">
-        <v>2045</v>
+        <v>1779</v>
       </c>
       <c r="I95" s="13">
-        <v>1779</v>
+        <v>82</v>
       </c>
       <c r="J95" s="13">
-        <v>82</v>
+        <v>-2019</v>
       </c>
       <c r="K95" s="13">
-        <v>-2019</v>
+        <v>3057</v>
       </c>
       <c r="L95" s="13">
-        <v>3057</v>
+        <v>3615</v>
       </c>
       <c r="M95" s="13">
-        <v>3615</v>
+        <v>10711</v>
       </c>
       <c r="N95" s="13">
-        <v>10711</v>
-      </c>
-    </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+        <v>39538</v>
+      </c>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="14" t="s">
         <v>50</v>
       </c>
       <c r="C96" s="15"/>
       <c r="D96" s="15"/>
       <c r="E96" s="15">
-        <v>1108294</v>
+        <v>1061537</v>
       </c>
       <c r="F96" s="15">
-        <v>1061537</v>
+        <v>1837278</v>
       </c>
       <c r="G96" s="15">
-        <v>1837278</v>
+        <v>864918</v>
       </c>
       <c r="H96" s="15">
-        <v>864918</v>
+        <v>423607</v>
       </c>
       <c r="I96" s="15">
-        <v>423607</v>
+        <v>482059</v>
       </c>
       <c r="J96" s="15">
-        <v>482059</v>
+        <v>132265</v>
       </c>
       <c r="K96" s="15">
-        <v>132265</v>
+        <v>184223</v>
       </c>
       <c r="L96" s="15">
-        <v>184223</v>
+        <v>463698</v>
       </c>
       <c r="M96" s="15">
-        <v>463698</v>
+        <v>813968</v>
       </c>
       <c r="N96" s="15">
-        <v>813968</v>
-      </c>
-    </row>
-    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1028671</v>
+      </c>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B97" s="8" t="s">
         <v>51</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="M97" s="9"/>
       <c r="N97" s="9"/>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="10" t="s">
         <v>16</v>
       </c>
@@ -3595,14 +3595,14 @@
       <c r="L98" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="M98" s="11" t="s">
-        <v>18</v>
+      <c r="M98" s="11">
+        <v>0</v>
       </c>
       <c r="N98" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="12" t="s">
         <v>24</v>
       </c>
@@ -3610,8 +3610,8 @@
         <v>34</v>
       </c>
       <c r="D99" s="13"/>
-      <c r="E99" s="13">
-        <v>0</v>
+      <c r="E99" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="F99" s="13" t="s">
         <v>18</v>
@@ -3641,7 +3641,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>19</v>
       </c>
@@ -3664,23 +3664,23 @@
       <c r="I100" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="J100" s="11" t="s">
-        <v>18</v>
+      <c r="J100" s="11">
+        <v>15620</v>
       </c>
       <c r="K100" s="11">
-        <v>15620</v>
+        <v>4311</v>
       </c>
       <c r="L100" s="11">
-        <v>4311</v>
+        <v>6386</v>
       </c>
       <c r="M100" s="11">
-        <v>6386</v>
+        <v>17606</v>
       </c>
       <c r="N100" s="11">
-        <v>17606</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26875</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="12" t="s">
         <v>20</v>
       </c>
@@ -3703,23 +3703,23 @@
       <c r="I101" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="J101" s="13" t="s">
-        <v>18</v>
+      <c r="J101" s="13">
+        <v>11860</v>
       </c>
       <c r="K101" s="13">
-        <v>11860</v>
+        <v>4189</v>
       </c>
       <c r="L101" s="13">
-        <v>4189</v>
+        <v>11824</v>
       </c>
       <c r="M101" s="13">
-        <v>11824</v>
+        <v>7887</v>
       </c>
       <c r="N101" s="13">
-        <v>7887</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>9048</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="14" t="s">
         <v>52</v>
       </c>
@@ -3741,22 +3741,22 @@
         <v>0</v>
       </c>
       <c r="J102" s="15">
-        <v>0</v>
+        <v>27480</v>
       </c>
       <c r="K102" s="15">
-        <v>27480</v>
+        <v>8500</v>
       </c>
       <c r="L102" s="15">
-        <v>8500</v>
+        <v>18210</v>
       </c>
       <c r="M102" s="15">
-        <v>18210</v>
+        <v>25493</v>
       </c>
       <c r="N102" s="15">
-        <v>25493</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>37250</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="16" t="s">
         <v>53</v>
       </c>
@@ -3773,7 +3773,7 @@
       <c r="M103" s="17"/>
       <c r="N103" s="17"/>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="14" t="s">
         <v>54</v>
       </c>
@@ -3810,41 +3810,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="18" t="s">
         <v>31</v>
       </c>
       <c r="C105" s="19"/>
       <c r="D105" s="19"/>
       <c r="E105" s="19">
-        <v>1108294</v>
+        <v>1061537</v>
       </c>
       <c r="F105" s="19">
-        <v>1061537</v>
+        <v>1837278</v>
       </c>
       <c r="G105" s="19">
-        <v>1837278</v>
+        <v>864918</v>
       </c>
       <c r="H105" s="19">
-        <v>864918</v>
+        <v>423607</v>
       </c>
       <c r="I105" s="19">
-        <v>423607</v>
+        <v>482059</v>
       </c>
       <c r="J105" s="19">
-        <v>482059</v>
+        <v>159745</v>
       </c>
       <c r="K105" s="19">
-        <v>159745</v>
+        <v>192723</v>
       </c>
       <c r="L105" s="19">
-        <v>192723</v>
+        <v>481908</v>
       </c>
       <c r="M105" s="19">
-        <v>481908</v>
+        <v>839461</v>
       </c>
       <c r="N105" s="19">
-        <v>839461</v>
+        <v>1065921</v>
       </c>
     </row>
   </sheetData>
